--- a/test/[神化]Apotheosis-1.18.2-5.8.1/data/apotheosis/bosses/主世界神化boss数值曲线.xlsx
+++ b/test/[神化]Apotheosis-1.18.2-5.8.1/data/apotheosis/bosses/主世界神化boss数值曲线.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\git\1.18.2Minecraft_modpacks01\test\[神化]Apotheosis-1.18.2-5.8.1\data\apotheosis\bosses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0023A6-FAE0-4ADA-BAA8-729C0373C4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7684BBCC-A72D-442E-81E1-AB57ADB59B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="18">
   <si>
     <t>最大值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,14 +48,6 @@
   </si>
   <si>
     <t>卫道士(vindicator)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通(common)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -94,6 +86,18 @@
     <t>珍贵(rare)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> 普通(common)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -115,12 +119,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -218,12 +228,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -238,10 +254,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -259,6 +294,1396 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3233814523184596E-2"/>
+          <c:y val="7.407407407407407E-2"/>
+          <c:w val="0.87232174103237092"/>
+          <c:h val="0.83611913094196555"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>权重</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D282-4189-BB29-A7FE48D2BB63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>权重</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D282-4189-BB29-A7FE48D2BB63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>权重</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D282-4189-BB29-A7FE48D2BB63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>权重</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D282-4189-BB29-A7FE48D2BB63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>权重</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D282-4189-BB29-A7FE48D2BB63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>权重</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D282-4189-BB29-A7FE48D2BB63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="235127183"/>
+        <c:axId val="196768079"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="235127183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196768079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="196768079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="235127183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1513416</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>124178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1816805</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>45155</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB0AC7D3-DEF1-C93A-7CF9-4F26466F164A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -540,27 +1965,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="5" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -568,9 +1993,8 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8"/>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -578,9 +2002,9 @@
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>1</v>
@@ -591,7 +2015,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>20</v>
@@ -599,9 +2023,8 @@
       <c r="C3" s="2">
         <v>40</v>
       </c>
-      <c r="D3" s="8"/>
       <c r="E3" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2">
         <v>40</v>
@@ -609,14 +2032,14 @@
       <c r="G3" s="2">
         <v>60</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>40</v>
-      </c>
-      <c r="K3" s="2">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4">
+        <v>60</v>
+      </c>
+      <c r="K3" s="4">
         <v>100</v>
       </c>
     </row>
@@ -630,7 +2053,6 @@
       <c r="C4" s="2">
         <v>40</v>
       </c>
-      <c r="D4" s="8"/>
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
@@ -640,20 +2062,20 @@
       <c r="G4" s="2">
         <v>60</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2">
-        <v>40</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="J4" s="4">
+        <v>60</v>
+      </c>
+      <c r="K4" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>20</v>
@@ -661,9 +2083,8 @@
       <c r="C5" s="2">
         <v>40</v>
       </c>
-      <c r="D5" s="8"/>
       <c r="E5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2">
         <v>40</v>
@@ -671,20 +2092,20 @@
       <c r="G5" s="2">
         <v>60</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="2">
-        <v>40</v>
-      </c>
-      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>60</v>
+      </c>
+      <c r="K5" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>20</v>
@@ -692,9 +2113,8 @@
       <c r="C6" s="2">
         <v>40</v>
       </c>
-      <c r="D6" s="8"/>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2">
         <v>40</v>
@@ -702,30 +2122,29 @@
       <c r="G6" s="2">
         <v>60</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="2">
-        <v>40</v>
-      </c>
-      <c r="K6" s="2">
+        <v>4</v>
+      </c>
+      <c r="J6" s="4">
+        <v>60</v>
+      </c>
+      <c r="K6" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
         <v>20</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="13">
         <v>40</v>
       </c>
-      <c r="D7" s="8"/>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2">
         <v>40</v>
@@ -733,12 +2152,12 @@
       <c r="G7" s="2">
         <v>60</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J7" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K7" s="2">
         <v>100</v>
@@ -748,49 +2167,48 @@
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4">
+        <v>40</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="8"/>
+      <c r="F8" s="13">
+        <v>40</v>
+      </c>
+      <c r="G8" s="13">
+        <v>60</v>
+      </c>
+      <c r="H8" s="12"/>
       <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J8" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K8" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="6"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
@@ -798,9 +2216,9 @@
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>1</v>
@@ -808,9 +2226,9 @@
       <c r="G10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>1</v>
@@ -821,7 +2239,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -829,9 +2247,9 @@
       <c r="C11" s="2">
         <v>0.05</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2">
         <v>0.05</v>
@@ -839,15 +2257,15 @@
       <c r="G11" s="2">
         <v>0.1</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="2">
+        <v>7</v>
+      </c>
+      <c r="J11" s="4">
         <v>0.1</v>
       </c>
-      <c r="K11" s="2">
-        <v>0.22</v>
+      <c r="K11" s="4">
+        <v>0.18</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -860,7 +2278,7 @@
       <c r="C12" s="2">
         <v>0.05</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
@@ -870,20 +2288,20 @@
       <c r="G12" s="2">
         <v>0.1</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="4">
         <v>0.1</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="4">
         <v>0.18</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -891,9 +2309,9 @@
       <c r="C13" s="2">
         <v>0.05</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2">
         <v>0.05</v>
@@ -901,20 +2319,20 @@
       <c r="G13" s="2">
         <v>0.1</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
         <v>0.1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.22</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -922,9 +2340,9 @@
       <c r="C14" s="2">
         <v>0.05</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2">
         <v>0.05</v>
@@ -932,30 +2350,30 @@
       <c r="G14" s="2">
         <v>0.1</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="2">
+        <v>4</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="K14" s="4">
         <v>0.1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.22</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15" s="13">
         <v>0</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="13">
         <v>0.05</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F15" s="2">
         <v>0.05</v>
@@ -963,38 +2381,38 @@
       <c r="G15" s="2">
         <v>0.1</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J15" s="2">
         <v>0.1</v>
       </c>
       <c r="K15" s="2">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="8"/>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="16"/>
       <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="8"/>
+      <c r="F16" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="12"/>
       <c r="I16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1006,21 +2424,21 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="6"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
@@ -1028,9 +2446,9 @@
       <c r="C18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -1038,9 +2456,9 @@
       <c r="G18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>1</v>
@@ -1051,7 +2469,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2">
         <v>0.1</v>
@@ -1059,9 +2477,9 @@
       <c r="C19" s="2">
         <v>0.2</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F19" s="2">
         <v>0.2</v>
@@ -1069,14 +2487,14 @@
       <c r="G19" s="2">
         <v>0.4</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="K19" s="2">
+        <v>7</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="K19" s="4">
         <v>0.5</v>
       </c>
     </row>
@@ -1090,7 +2508,7 @@
       <c r="C20" s="2">
         <v>0.2</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="2" t="s">
         <v>3</v>
       </c>
@@ -1100,20 +2518,20 @@
       <c r="G20" s="2">
         <v>0.4</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="4">
         <v>0.2</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="4">
         <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="2">
         <v>0.1</v>
@@ -1121,9 +2539,9 @@
       <c r="C21" s="2">
         <v>0.2</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2">
         <v>0.2</v>
@@ -1131,20 +2549,20 @@
       <c r="G21" s="2">
         <v>0.4</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.4</v>
+        <v>2</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2">
         <v>0.1</v>
@@ -1152,9 +2570,9 @@
       <c r="C22" s="2">
         <v>0.2</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F22" s="2">
         <v>0.2</v>
@@ -1162,30 +2580,30 @@
       <c r="G22" s="2">
         <v>0.4</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0.55000000000000004</v>
+        <v>4</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="13">
         <v>0.1</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="13">
         <v>0.2</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F23" s="2">
         <v>0.2</v>
@@ -1193,38 +2611,38 @@
       <c r="G23" s="2">
         <v>0.4</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J23" s="2">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K23" s="2">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="8"/>
+      <c r="B24" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="16"/>
       <c r="E24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="8"/>
+      <c r="F24" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="H24" s="12"/>
       <c r="I24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1236,232 +2654,288 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="6"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="5">
+        <v>7</v>
+      </c>
+      <c r="F27" s="7">
         <v>0.3</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="K27" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="7">
         <v>0.1</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="7">
         <v>0.25</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="9">
         <v>0.25</v>
       </c>
-      <c r="K28" s="6"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="12"/>
       <c r="I29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="K29" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="5">
+        <v>4</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="7">
         <v>0.25</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="K30" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="B31" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="5">
+        <v>6</v>
+      </c>
+      <c r="F31" s="7">
         <v>0.3</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="12"/>
       <c r="I31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="5">
+        <v>6</v>
+      </c>
+      <c r="J31" s="7">
         <v>0.4</v>
       </c>
-      <c r="K31" s="6"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="8"/>
+      <c r="B32" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="8"/>
+      <c r="F32" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="12"/>
       <c r="I32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="7">
         <v>0.4</v>
       </c>
-      <c r="K32" s="6"/>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="J31:K31"/>
+  <mergeCells count="34">
+    <mergeCell ref="J27:K27"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="H1:H32"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="D1:D32"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J29:K29"/>
     <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
     <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
     <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F27:G27"/>
     <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/[神化]Apotheosis-1.18.2-5.8.1/data/apotheosis/bosses/主世界神化boss数值曲线.xlsx
+++ b/test/[神化]Apotheosis-1.18.2-5.8.1/data/apotheosis/bosses/主世界神化boss数值曲线.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\git\1.18.2Minecraft_modpacks01\test\[神化]Apotheosis-1.18.2-5.8.1\data\apotheosis\bosses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7684BBCC-A72D-442E-81E1-AB57ADB59B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1EA139-25BF-4DBD-A70A-0F61F5C0053D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="20">
   <si>
     <t>最大值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,14 @@
   </si>
   <si>
     <t>生物名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,6 +248,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -254,29 +265,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1649,16 +1647,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1513416</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>124178</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>230716</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>16228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1816805</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>534105</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>45155</xdr:rowOff>
+      <xdr:rowOff>115005</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1949,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1964,26 +1962,26 @@
     <col min="9" max="9" width="30.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="7" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J1" s="10"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1993,6 +1991,7 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="13"/>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2002,7 +2001,7 @@
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2013,16 +2012,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2">
         <v>40</v>
       </c>
+      <c r="D3" s="13"/>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="G3" s="2">
         <v>60</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2043,16 +2043,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2">
         <v>40</v>
       </c>
+      <c r="D4" s="13"/>
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2062,7 +2063,7 @@
       <c r="G4" s="2">
         <v>60</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2072,17 +2073,21 @@
       <c r="K4" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>40</v>
       </c>
+      <c r="D5" s="13"/>
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2092,7 +2097,7 @@
       <c r="G5" s="2">
         <v>60</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2103,16 +2108,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>40</v>
       </c>
+      <c r="D6" s="13"/>
       <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2122,7 +2128,7 @@
       <c r="G6" s="2">
         <v>60</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2133,16 +2139,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13">
-        <v>20</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="2">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2">
         <v>40</v>
       </c>
+      <c r="D7" s="13"/>
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2152,37 +2159,38 @@
       <c r="G7" s="2">
         <v>60</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="2">
         <v>60</v>
       </c>
-      <c r="K7" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4">
         <v>40</v>
       </c>
+      <c r="D8" s="13"/>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="2">
         <v>40</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="2">
         <v>60</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2190,23 +2198,23 @@
         <v>60</v>
       </c>
       <c r="K8" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2216,7 +2224,7 @@
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2226,7 +2234,7 @@
       <c r="G10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2237,17 +2245,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C11" s="2">
         <v>0.05</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
@@ -2257,7 +2265,7 @@
       <c r="G11" s="2">
         <v>0.1</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="2" t="s">
         <v>7</v>
       </c>
@@ -2268,17 +2276,17 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C12" s="2">
         <v>0.05</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2288,7 +2296,7 @@
       <c r="G12" s="2">
         <v>0.1</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2299,17 +2307,17 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C13" s="2">
         <v>0.05</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
@@ -2319,7 +2327,7 @@
       <c r="G13" s="2">
         <v>0.1</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="2" t="s">
         <v>2</v>
       </c>
@@ -2330,17 +2338,17 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C14" s="2">
         <v>0.05</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
@@ -2350,7 +2358,7 @@
       <c r="G14" s="2">
         <v>0.1</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="2" t="s">
         <v>4</v>
       </c>
@@ -2361,17 +2369,17 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="13">
-        <v>0</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.05</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
@@ -2381,7 +2389,7 @@
       <c r="G15" s="2">
         <v>0.1</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="2" t="s">
         <v>6</v>
       </c>
@@ -2392,27 +2400,27 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C16" s="4">
         <v>0.05</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="2">
         <v>0.05</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="2">
         <v>0.1</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2424,17 +2432,17 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="8"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -2446,7 +2454,7 @@
       <c r="C18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
@@ -2456,7 +2464,7 @@
       <c r="G18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="2" t="s">
         <v>10</v>
       </c>
@@ -2477,7 +2485,7 @@
       <c r="C19" s="2">
         <v>0.2</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
@@ -2487,7 +2495,7 @@
       <c r="G19" s="2">
         <v>0.4</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="2" t="s">
         <v>7</v>
       </c>
@@ -2508,7 +2516,7 @@
       <c r="C20" s="2">
         <v>0.2</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="2" t="s">
         <v>3</v>
       </c>
@@ -2518,7 +2526,7 @@
       <c r="G20" s="2">
         <v>0.4</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="2" t="s">
         <v>3</v>
       </c>
@@ -2539,7 +2547,7 @@
       <c r="C21" s="2">
         <v>0.2</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="2" t="s">
         <v>2</v>
       </c>
@@ -2549,7 +2557,7 @@
       <c r="G21" s="2">
         <v>0.4</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="2" t="s">
         <v>2</v>
       </c>
@@ -2570,7 +2578,7 @@
       <c r="C22" s="2">
         <v>0.2</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="2" t="s">
         <v>4</v>
       </c>
@@ -2580,7 +2588,7 @@
       <c r="G22" s="2">
         <v>0.4</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="2" t="s">
         <v>4</v>
       </c>
@@ -2595,13 +2603,13 @@
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="2">
         <v>0.1</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="2">
         <v>0.2</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="2" t="s">
         <v>6</v>
       </c>
@@ -2611,7 +2619,7 @@
       <c r="G23" s="2">
         <v>0.4</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="2" t="s">
         <v>6</v>
       </c>
@@ -2632,17 +2640,17 @@
       <c r="C24" s="4">
         <v>0.2</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="2">
         <v>0.2</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="2">
         <v>0.4</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="2" t="s">
         <v>5</v>
       </c>
@@ -2654,195 +2662,195 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="8"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="16"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="8"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>0.15</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="16"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="8">
         <v>0.3</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="11">
         <v>0.4</v>
       </c>
-      <c r="K27" s="10"/>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>0.1</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="8">
         <v>0.25</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="12"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="11">
         <v>0.25</v>
       </c>
-      <c r="K28" s="10"/>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="8">
         <v>0.15</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="16"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="8">
         <v>0.3</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="12"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="11">
         <v>0.3</v>
       </c>
-      <c r="K29" s="10"/>
+      <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="8">
         <v>0.1</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="16"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="8">
         <v>0.25</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="12"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="11">
         <v>0.25</v>
       </c>
-      <c r="K30" s="10"/>
+      <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="8">
         <v>0.15</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <v>0.3</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="12"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="13"/>
       <c r="I31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="8">
         <v>0.4</v>
       </c>
-      <c r="K31" s="8"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="11">
         <v>0.15</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="16"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="8">
         <v>0.3</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="12"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="8">
         <v>0.4</v>
       </c>
-      <c r="K32" s="8"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2898,7 +2906,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="I1:K1"/>
@@ -2915,11 +2923,6 @@
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J31:K31"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F32:G32"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="B32:C32"/>
@@ -2927,6 +2930,12 @@
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D1:D32"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F32:G32"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B29:C29"/>
